--- a/FedExApplication/bin/TestFiles/CheetahProcessing_PreProd.xlsx
+++ b/FedExApplication/bin/TestFiles/CheetahProcessing_PreProd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="196">
   <si>
     <t>Sno</t>
   </si>
@@ -539,6 +539,69 @@
   </si>
   <si>
     <t>320017962498</t>
+  </si>
+  <si>
+    <t>320017962708</t>
+  </si>
+  <si>
+    <t>320017962719</t>
+  </si>
+  <si>
+    <t>320017962741</t>
+  </si>
+  <si>
+    <t>320017962774</t>
+  </si>
+  <si>
+    <t>320017962811</t>
+  </si>
+  <si>
+    <t>320017962833</t>
+  </si>
+  <si>
+    <t>320017962866</t>
+  </si>
+  <si>
+    <t>320017962888</t>
+  </si>
+  <si>
+    <t>320017962936</t>
+  </si>
+  <si>
+    <t>320017962958</t>
+  </si>
+  <si>
+    <t>320017962991</t>
+  </si>
+  <si>
+    <t>320017963016</t>
+  </si>
+  <si>
+    <t>320017963049</t>
+  </si>
+  <si>
+    <t>320017963060</t>
+  </si>
+  <si>
+    <t>320017963093</t>
+  </si>
+  <si>
+    <t>320017963119</t>
+  </si>
+  <si>
+    <t>320017963152</t>
+  </si>
+  <si>
+    <t>320017963174</t>
+  </si>
+  <si>
+    <t>320017963200</t>
+  </si>
+  <si>
+    <t>320017963222</t>
+  </si>
+  <si>
+    <t>320017963255</t>
   </si>
 </sst>
 </file>
@@ -981,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD24"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -1115,7 +1178,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="2"/>
@@ -1165,7 +1228,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="2"/>
@@ -1207,7 +1270,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="2"/>
@@ -1259,10 +1322,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1313,10 +1376,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -1371,10 +1434,10 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -1435,7 +1498,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="2"/>
@@ -1491,7 +1554,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="2"/>
@@ -1531,7 +1594,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="2"/>
@@ -1571,7 +1634,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="2"/>
@@ -1611,7 +1674,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="2"/>
@@ -1653,10 +1716,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
@@ -1707,10 +1770,10 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -1761,10 +1824,10 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
@@ -1815,10 +1878,10 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="7" t="s">
@@ -1869,10 +1932,10 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
@@ -1923,7 +1986,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="2"/>
@@ -1965,7 +2028,7 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="2"/>
@@ -2017,7 +2080,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="2"/>
@@ -2069,7 +2132,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="2"/>
@@ -2123,7 +2186,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="2"/>
